--- a/MeetingMatrix.xlsx
+++ b/MeetingMatrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MoM Summary" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="138">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>1. Receive contents for Rituals of Kumbh, Astrological Significance, Mythological Significance, Spiritual Gurus</t>
+  </si>
+  <si>
+    <t>\Kumbh\Website\About Allahabad\Tourist Attractions\ListofAttraction_2018-06-24_v1.docx</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -595,6 +598,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -917,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -940,41 +946,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2" t="s">
         <v>95</v>
       </c>
@@ -990,8 +996,8 @@
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1156,9 +1162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1185,7 @@
     <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" style="1" customWidth="1"/>
@@ -1191,110 +1197,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="15" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="2" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="2" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
     </row>
     <row r="3" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -1830,7 +1836,7 @@
       </c>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1870,7 +1876,9 @@
       <c r="Q14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="S14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1890,7 +1898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1930,7 +1938,9 @@
       <c r="Q15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="S15" s="4" t="s">
         <v>22</v>
       </c>

--- a/MeetingMatrix.xlsx
+++ b/MeetingMatrix.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MoM Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Content Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="TourismDepartment" sheetId="3" r:id="rId3"/>
+    <sheet name="MuseumContent" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Content Summary'!$E$1:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Content Summary'!$E$1:$E$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="190">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -329,9 +331,6 @@
     <t>Thematic Gates</t>
   </si>
   <si>
-    <t>Mr. Kavider Singh</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Contents to be provided by Police department
 </t>
   </si>
@@ -391,11 +390,6 @@
     <t>Mr. Anupam Srivastava</t>
   </si>
   <si>
-    <t>1. Department to provide information with regards to empaneled hotels and PGs and same shall be made available
-2. Information with regards to various events managed by department to be made available like Thematic gates, tourist walk, lazor light show, etc.
-3. System should have provision to upload photos and videos against all such events on regular basis</t>
-  </si>
-  <si>
     <t>1. List of required content to be shared with Department
 2. Department to provide all the content in soft copy</t>
   </si>
@@ -412,14 +406,6 @@
     <t>Physical meeting</t>
   </si>
   <si>
-    <t>Telecon</t>
-  </si>
-  <si>
-    <t>1. In Mobile app, current location of the user should be displayed while aceesing location based search 
-2. Department to provide details of all the content to be made available, like Security Services, Traffic Plan, Emergency Services, Disaster Management, Lost &amp; Found
-3. Department shall made available a dedicated team during Kumbh to faciliate timely availability of the verified information</t>
-  </si>
-  <si>
     <t>1. Visit UP tourism website (http://uptourism.gov.in/)
 2. All available contents to be provided by Tourism department in soft/hard copy format</t>
   </si>
@@ -461,6 +447,194 @@
   </si>
   <si>
     <t>\Kumbh\Website\About Allahabad\Tourist Attractions\ListofAttraction_2018-06-24_v1.docx</t>
+  </si>
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Required Content</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Mr. Dilip Trigunayat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Contents to be provided by Tourism Department
+</t>
+  </si>
+  <si>
+    <t>Mr. Sunil Gupta</t>
+  </si>
+  <si>
+    <t>1. Information with regards to historic attractions to be made available like :  
+    a. Research on Kumbh
+    b. History
+    c. About Sangam
+    d. Tourist Attractions
+    e. Photo, Video, Downloads</t>
+  </si>
+  <si>
+    <t>SCZCC, Allahabad</t>
+  </si>
+  <si>
+    <t>1. Collect contents for cultural event to be conducted during Kumbh</t>
+  </si>
+  <si>
+    <t>Mr. Ashish Shrivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA to Director, NCZ </t>
+  </si>
+  <si>
+    <t>+91 76070 03498</t>
+  </si>
+  <si>
+    <t>1. Mr. Grover was out of station and will be available next week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Contents to be provided on cultural event arranged by NCZCC
+</t>
+  </si>
+  <si>
+    <t>1. Collect contents for services provided by Tourism department on travel arrangements</t>
+  </si>
+  <si>
+    <t>Mr. Rohit Ray, Mr. Dayanand Prasad</t>
+  </si>
+  <si>
+    <t>ADM, Mela Office
+PCS, Mela Office</t>
+  </si>
+  <si>
+    <t>1. Current location of user will be shown in mobile application
+2. Mobile application should also show geo tagged location in offline mode
+3. Mobile and web application should also have functionality to present lost &amp; found citizen</t>
+  </si>
+  <si>
+    <t>1. Department to provide information with regards to empaneled hotels and PGs and same shall be made available
+2. Information with regards to various events managed by department to be made available like Thematic gates, tourist walk, laser light show, etc.
+3. System should have provision to upload photos and videos against all such events on regular basis</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>Mr. Kavinder Singh</t>
+  </si>
+  <si>
+    <t>1. In Mobile app, current location of the user should be displayed while accessing location based search 
+2. Department to provide details of all the content to be made available, like Security Services, Traffic Plan, Emergency Services, Disaster Management, Lost &amp; Found
+3. Department shall made available a dedicated team during Kumbh to facilitate timely availability of the verified information</t>
+  </si>
+  <si>
+    <t>1. Information with regards to train travel arrangements to be made available by Central Railway Headquarter (Mr. AK Dwiwedi) like Special Trains &amp; stoppages, Trains rerouted 
+2. Information with regards to air travel arrangements to be provided after airport get operational
+3. Information with regards to inline waterways authority to be made available</t>
+  </si>
+  <si>
+    <t>Museum, Allahabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Collect contents for Kumbh on historic places in Allahabad </t>
+  </si>
+  <si>
+    <t>Director, Museum Allahabad</t>
+  </si>
+  <si>
+    <t>1. List of required content to be shared with Director of Museum
+2. Director of Museum to provide all the content in soft copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Contents to be provided by Tourism Department on travel arrangements
+2. Pictures to be provided by team of media centre and approved by Mela Adhikari 
+</t>
+  </si>
+  <si>
+    <t>Description of required content</t>
+  </si>
+  <si>
+    <t>Content Description</t>
+  </si>
+  <si>
+    <t>Briefing on the unique artistic gates, location and Details on their look and design.</t>
+  </si>
+  <si>
+    <t>Detailed description on how to know about history, stories, culture of the Mela through Tourist walk.</t>
+  </si>
+  <si>
+    <t>Details about the laser show, theme, time, type of laser lights involved and location.</t>
+  </si>
+  <si>
+    <t>Detailed description on key Festivals/Events Importance of each, distinguishing feature of each and time of occurrence.</t>
+  </si>
+  <si>
+    <t>Name, Location, Contact ID</t>
+  </si>
+  <si>
+    <t>Key Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythological, Cultural and Heritage (Rise of the city from time to time) </t>
+  </si>
+  <si>
+    <t>Links of related and relevant websites</t>
+  </si>
+  <si>
+    <t>Of all tourist destination. Major festivals and events.</t>
+  </si>
+  <si>
+    <t>Places that are less than 200 km of distance from Allahabad and are priorities for Uttar Government to be developed as Tourist destination</t>
+  </si>
+  <si>
+    <t>Name of events, dates, importance along with description of the events (4-5 lines each)</t>
+  </si>
+  <si>
+    <t>Description on modes of transportation likes Road, Rail, Air along with lists of transport eg flights (from and to Allahabad)</t>
+  </si>
+  <si>
+    <t>Brochures, Policies, Past event.</t>
+  </si>
+  <si>
+    <t>Details like Police, Fire Station, Medical.</t>
+  </si>
+  <si>
+    <t>FAQs that tourists visiting Kumbh or Allahabad seek for along with answers</t>
+  </si>
+  <si>
+    <t>Of tourists visiting the museum.</t>
+  </si>
+  <si>
+    <t>Of museums</t>
+  </si>
+  <si>
+    <t>Sangam: as a tourist destination, religious significance.</t>
+  </si>
+  <si>
+    <t>Description of places, timings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailed description on various type of food/cuisine (street food&amp;fine dining). Any particular area famous for any particular kind of food.
+</t>
+  </si>
+  <si>
+    <t>Activities that can be performed during Kumbh and otherwise like Ganga Aarti, Ganga Snan, Parikrima (4-5 lines each)</t>
+  </si>
+  <si>
+    <t>Brief description of content required</t>
+  </si>
+  <si>
+    <t>Contact details of all relevent department member involved</t>
+  </si>
+  <si>
+    <t>Description on mythological findings, astrological researches, Harvard Research</t>
+  </si>
+  <si>
+    <t>Case Studies and PDFs</t>
   </si>
 </sst>
 </file>
@@ -470,7 +644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,8 +680,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,8 +708,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -550,12 +738,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -602,6 +847,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -610,6 +871,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -921,11 +1215,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -946,41 +1240,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="2" t="s">
         <v>95</v>
       </c>
@@ -996,8 +1290,8 @@
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1007,13 +1301,13 @@
         <v>43273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>94</v>
@@ -1022,17 +1316,17 @@
         <v>34</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
@@ -1043,34 +1337,34 @@
         <v>43274</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
@@ -1081,28 +1375,28 @@
         <v>43274</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="9"/>
       <c r="I5" s="6"/>
       <c r="J5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
@@ -1113,16 +1407,16 @@
         <v>43275</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>49</v>
@@ -1130,13 +1424,149 @@
       <c r="H6" s="9"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43276</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>101</v>
+      <c r="D7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43276</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43276</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43276</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1160,11 +1590,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="M1" zoomScale="103" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1184,84 +1614,88 @@
     <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="37.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="36.28515625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="21.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="37.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="36.28515625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="16" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+    <row r="2" spans="1:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1708,7 @@
       <c r="I2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
@@ -1287,22 +1721,23 @@
       <c r="N2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="15" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-    </row>
-    <row r="3" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+    </row>
+    <row r="3" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1351,24 +1786,25 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>9953122008</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1417,24 +1853,25 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>9953122008</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1478,29 +1915,30 @@
         <v>19</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>9953122008</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1527,22 +1965,23 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1569,22 +2008,23 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1611,22 +2051,23 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1653,22 +2094,23 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1695,22 +2137,23 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1737,22 +2180,23 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1779,22 +2223,23 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1821,22 +2266,23 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1870,35 +2316,36 @@
       <c r="O14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="4">
+        <v>9953122008</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T14" s="4">
-        <v>9953122008</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="W14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1932,35 +2379,36 @@
       <c r="O15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="4">
+        <v>9953122008</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="X15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T15" s="4">
-        <v>9953122008</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="W15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -1987,22 +2435,23 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -2029,22 +2478,23 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -2071,24 +2521,25 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>9953122008</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="V18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -2115,22 +2566,23 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4" t="s">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -2157,22 +2609,23 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V20" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2199,22 +2652,23 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V21" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -2241,22 +2695,23 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V22" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -2283,22 +2738,23 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4" t="s">
+      <c r="U23" s="4"/>
+      <c r="V23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -2325,22 +2781,23 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4" t="s">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V24" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X24" s="4"/>
-    </row>
-    <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -2367,22 +2824,23 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="4"/>
+      <c r="T25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4" t="s">
+      <c r="U25" s="4"/>
+      <c r="V25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2409,22 +2867,23 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="4" t="s">
+      <c r="S26" s="4"/>
+      <c r="T26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4" t="s">
+      <c r="U26" s="4"/>
+      <c r="V26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V26" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X26" s="4"/>
-    </row>
-    <row r="27" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -2457,24 +2916,25 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <v>9953122008</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="V27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X27" s="4"/>
-    </row>
-    <row r="28" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -2507,24 +2967,25 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <v>9953122008</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="V28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X28" s="4"/>
-    </row>
-    <row r="29" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -2551,22 +3012,23 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X29" s="4"/>
-    </row>
-    <row r="30" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -2588,27 +3050,28 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4" t="s">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V30" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -2635,22 +3098,23 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4" t="s">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V31" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W31" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -2677,22 +3141,23 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="4" t="s">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="4"/>
+      <c r="V32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V32" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W32" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -2719,22 +3184,23 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="4"/>
+      <c r="T33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4" t="s">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X33" s="4"/>
-    </row>
-    <row r="34" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -2761,22 +3227,23 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="4" t="s">
+      <c r="S34" s="4"/>
+      <c r="T34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4" t="s">
+      <c r="U34" s="4"/>
+      <c r="V34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X34" s="4"/>
-    </row>
-    <row r="35" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -2803,22 +3270,23 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="4" t="s">
+      <c r="S35" s="4"/>
+      <c r="T35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4" t="s">
+      <c r="U35" s="4"/>
+      <c r="V35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V35" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W35" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X35" s="4"/>
-    </row>
-    <row r="36" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -2845,22 +3313,23 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4" t="s">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4" t="s">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V36" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -2887,22 +3356,23 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="4" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4" t="s">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V37" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X37" s="4"/>
-    </row>
-    <row r="38" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -2929,22 +3399,23 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4" t="s">
+      <c r="U38" s="4"/>
+      <c r="V38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V38" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X38" s="4"/>
-    </row>
-    <row r="39" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -2971,22 +3442,23 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="4" t="s">
+      <c r="S39" s="4"/>
+      <c r="T39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4" t="s">
+      <c r="U39" s="4"/>
+      <c r="V39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V39" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X39" s="4"/>
-    </row>
-    <row r="40" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -3013,22 +3485,23 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="4" t="s">
+      <c r="S40" s="4"/>
+      <c r="T40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4" t="s">
+      <c r="U40" s="4"/>
+      <c r="V40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V40" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X40" s="4"/>
-    </row>
-    <row r="41" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -3055,22 +3528,23 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="4" t="s">
+      <c r="S41" s="4"/>
+      <c r="T41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4" t="s">
+      <c r="U41" s="4"/>
+      <c r="V41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V41" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X41" s="4"/>
-    </row>
-    <row r="42" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -3097,22 +3571,23 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4" t="s">
+      <c r="S42" s="4"/>
+      <c r="T42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V42" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X42" s="4"/>
-    </row>
-    <row r="43" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3139,22 +3614,23 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4" t="s">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V43" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -3181,22 +3657,23 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4" t="s">
+      <c r="S44" s="4"/>
+      <c r="T44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V44" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X44" s="4"/>
-    </row>
-    <row r="45" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3223,22 +3700,23 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4" t="s">
+      <c r="S45" s="4"/>
+      <c r="T45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V45" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X45" s="4"/>
-    </row>
-    <row r="46" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3265,22 +3743,23 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4" t="s">
+      <c r="S46" s="4"/>
+      <c r="T46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V46" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W46" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X46" s="4"/>
-    </row>
-    <row r="47" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y46" s="4"/>
+    </row>
+    <row r="47" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -3307,22 +3786,23 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4" t="s">
+      <c r="S47" s="4"/>
+      <c r="T47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V47" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W47" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X47" s="4"/>
-    </row>
-    <row r="48" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y47" s="4"/>
+    </row>
+    <row r="48" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -3349,22 +3829,23 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4" t="s">
+      <c r="S48" s="4"/>
+      <c r="T48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V48" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X48" s="4"/>
-    </row>
-    <row r="49" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3391,22 +3872,23 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4" t="s">
+      <c r="S49" s="4"/>
+      <c r="T49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V49" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W49" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X49" s="4"/>
-    </row>
-    <row r="50" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -3433,22 +3915,23 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4" t="s">
+      <c r="S50" s="4"/>
+      <c r="T50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V50" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W50" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X50" s="4"/>
-    </row>
-    <row r="51" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -3475,22 +3958,23 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4" t="s">
+      <c r="S51" s="4"/>
+      <c r="T51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V51" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X51" s="4"/>
-    </row>
-    <row r="52" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -3517,22 +4001,23 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4" t="s">
+      <c r="S52" s="4"/>
+      <c r="T52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V52" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X52" s="4"/>
-    </row>
-    <row r="53" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3540,7 +4025,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
@@ -3554,27 +4039,28 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4" t="s">
+      <c r="S53" s="4"/>
+      <c r="T53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V53" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W53" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X53" s="4"/>
-    </row>
-    <row r="54" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -3582,7 +4068,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
@@ -3596,29 +4082,41 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4" t="s">
+      <c r="S54" s="4"/>
+      <c r="T54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V54" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X54" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y54" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E52"/>
-  <mergeCells count="17">
+  <autoFilter ref="E1:E54"/>
+  <mergeCells count="18">
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
@@ -3626,16 +4124,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1"/>
@@ -3647,4 +4135,462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="77.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>20</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
+        <v>21</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>